--- a/crawling_covid_news.xlsx
+++ b/crawling_covid_news.xlsx
@@ -503,7 +503,7 @@
         <v>코로나19 증상 심각해 입원한 경우는 63% 최윤정 특파원 = 영국 잉글랜드의 코로나19 입원환자 37%는 다른 사유로 입원한 뒤 확진된 경우이고 실제 코로나19 증상으로 입원한 환자는 63%로 나타났다. 국민보건서비스...</v>
       </c>
       <c r="D9" t="str">
-        <v>25분 전</v>
+        <v>28분 전</v>
       </c>
     </row>
     <row r="10">
@@ -536,125 +536,125 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>일본 코로나 신규확진 6천명 돌파…일주일 사이에 12배로 확대(종합)</v>
+        <v>[2보] 코로나19 '먹는 치료제' 다음주 국내 들어온다</v>
       </c>
       <c r="B12" t="str">
-        <v>http://yna.kr/AKR20220107125651073?did=1195m</v>
+        <v>http://yna.kr/AKR20220107029200001?did=1195m</v>
       </c>
       <c r="C12" t="str">
-        <v>6％ 불과 김호준 이세원 특파원 = 코로나19가 급속히 확산하는 일본에서 3개 광역지방자치단체에 방역 비상조치가 적용된다. 기시다 후미오(岸田文雄) 일본 총리는 7일 오후 열린 코로나19 대책본부 회의에서 오키나와...</v>
+        <v>김총리 "오미크론 변이 대응해 '속도' 중심으로 방역체계 혁신" "방역패스 혼란 길어지면 국민 피해…법원, 본안판결 신속히 해달라" 김부겸 국무총리는 7일 신종 코로나바이러스 감염증(코로나19) 대응과 관련, "다음...</v>
       </c>
       <c r="D12" t="str">
-        <v>1시간 전</v>
+        <v>16시간 전</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>광화문 집결한 경기도 상인들 “코로나 피해 100% 보상하라”</v>
+        <v>국내 첫 '32주 임신부' 코로나 사망자 발생…미접종 기저질환자</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.edaily.co.kr/news/newspath.asp?newsid=02784726632195424</v>
+        <v>https://www.news1.kr/articles/?4547749</v>
       </c>
       <c r="C13" t="str">
-        <v>전에 코로나 피해 소상공인과 자영업자에 대해 사각지대 없는 100% 손실보상을 즉각 협의하라”고 성명을 발표했다. 경기도상인연합회는 7일 오후 광화문 광장 시민열린마당에서 집회를 열고 코로나19 피해 소상공인과...</v>
+        <v>국내 첫 임신부 코로나19 사망자가 발생했다. 지난해 11월 확진자인 임신부가 태아를 사산하고 사후 결과... 방역당국은 7일 출입기자단에게 국내에서 보고된 첫 번째 임신부 코로나19 사망 사례라며 확진 당시 임신...</v>
       </c>
       <c r="D13" t="str">
-        <v>7시간 전</v>
+        <v>9시간 전</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>코로나19 확진 임산부 국내 첫 사망…신생아는 ‘음성’</v>
+        <v>국내 첫 코로나19 확진 임산부 사망…신생아는 ‘음성’</v>
       </c>
       <c r="B14" t="str">
-        <v>https://news.kbs.co.kr/news/view.do?ncd=5367352&amp;ref=A</v>
+        <v>https://news.kbs.co.kr/news/view.do?ncd=5367248&amp;ref=A</v>
       </c>
       <c r="C14" t="str">
-        <v>국내에서 처음으로 코로나19에 확진된 임산부가 숨졌습니다. 기저질환이 있었고 백신은 맞지 않은 상태였는데요. 신생아는 음성 판정을 받았고 건강한 것으로 확인됐습니다. 최유경 기자가 보도합니다. [리포트] 코로나1...</v>
+        <v>국내에서 코로나19에 확진됐던 임산부가 처음으로 사망하는 사례가 나왔습니다. 중앙방역대책본부는 오늘(7일) “국내에 보고된 첫번째 임신부 코로나19 사망 사례가 발생했다”고 밝혔습니다. 방대본은 사망 임산부는...</v>
       </c>
       <c r="D14" t="str">
-        <v>5시간 전</v>
+        <v>9시간 전</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>'먹는 코로나 치료제' 이르면 다음 주 중 국내 도입</v>
+        <v>전 세계 코로나19 확진자 2년만에 3억명 넘었다</v>
       </c>
       <c r="B15" t="str">
-        <v>https://health.chosun.com/site/data/html_dir/2022/01/07/2022010700968.html</v>
+        <v>http://www.edaily.co.kr/news/newspath.asp?newsid=02778166632195424</v>
       </c>
       <c r="C15" t="str">
-        <v>코로나19 게임체인저로 기대를 모으는 경구용 코로나19 치료제가 다음 주 중 국내에 들어올 예정이다. 김부겸 국무총리는 7일 코로나19 중앙재난안전대책본부 회의에서 “다음 주에는 경구용 치료제가 국내로 들어올...</v>
+        <v>전 세계 코로나19 확진자가 3억명을 돌파한 것으로 집계됐다. 코로나19 누적 확진자 수가 2년만에 3억명을 돌파한 것으로 집계됐다. (사진= AFP) 미국 존스홉킨스대학은 7일(현지시간) 그리니치표준시(GMT) 기준으로...</v>
       </c>
       <c r="D15" t="str">
-        <v>13시간 전</v>
+        <v>7시간 전</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>작년 12월 음식·숙박업 카드 사용액, 코로나 이전의 81.7% 불과</v>
+        <v>식약처 코로나19 치료제 '베클루리주' 허가 변경, 폐렴에도 사용</v>
       </c>
       <c r="B16" t="str">
-        <v>http://yna.kr/AKR20220105171700002?did=1195m</v>
+        <v>http://www.fnnews.com/news/202201071444391711</v>
       </c>
       <c r="C16" t="str">
-        <v>늘었지만, 코로나19 이전 수준에는 크게 못 미치는 것으로 나타났다. 6일 더불어민주당 김회재 의원이... 작년 11월 1일부터 시작된 단계적 일상 회복(위드 코로나)에 힘입어 각종 모임과 외식, 여행 관련 지출이...</v>
+        <v>식품의약품안전처는 코로나19 치료제 ‘베클루리주(렘데시비르)'를 중증 또는 폐렴에 사용할 수 있도록... 베클루리주는 지난 2020년 7월 3상 임상시험 결과 등을 시판 후 제출하는 조건으로 ‘코로나19에 확진된 3.5kg...</v>
       </c>
       <c r="D16" t="str">
-        <v>1일 전</v>
+        <v>9시간 전</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>함익병 "정부 코로나 대응 비판한 영상, 강제 삭제…명백한 탄압"</v>
+        <v>'먹는 코로나 치료제' 이르면 다음 주 중 국내 도입</v>
       </c>
       <c r="B17" t="str">
-        <v>http://mbn.mk.co.kr/pages/news/newsView.php?category=mbn00009&amp;news_seq_no=4675990</v>
+        <v>https://health.chosun.com/site/data/html_dir/2022/01/07/2022010700968.html</v>
       </c>
       <c r="C17" t="str">
-        <v>코로나19 상황에 대한 정부의 무리한 대응을 비판한 의학 채널 유튜브 영상이 삭제 처리됐습니다. 해당 영상에... 유튜브 '의학채널 비온뒤' 담당자는 6일 채널 커뮤니티에 "6일 오후 2시에 업로드했던 '코로나 백신 1부 더...</v>
+        <v>코로나19 게임체인저로 기대를 모으는 경구용 코로나19 치료제가 다음 주 중 국내에 들어올 예정이다. 김부겸 국무총리는 7일 코로나19 중앙재난안전대책본부 회의에서 “다음 주에는 경구용 치료제가 국내로 들어올...</v>
       </c>
       <c r="D17" t="str">
-        <v>9시간 전</v>
+        <v>13시간 전</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>"코로나19 영향으로 한미일 국방장관회담 연기"</v>
+        <v>서울 코로나 확진자 1038명…사흘 연속 1000명대</v>
       </c>
       <c r="B18" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220106_0001714712&amp;cID=10101&amp;pID=10100</v>
+        <v>http://www.newsis.com/view/?id=NISX20220107_0001716522&amp;cID=10201&amp;pID=10200</v>
       </c>
       <c r="C18" t="str">
-        <v>확진·美 코로나19 감염 확산 영향" 미국 하와이에서 이달 중순 열릴 예정이었던 한미일 국방장관 회담이 보류됐다고 6일 일본 NHK가 보도했다. 보도에 따르면 로이드 오스틴 미국 국방장관의 코로나19 확진, 미국의...</v>
+        <v>기사내용 요약어린이집·요양병원 등 집단감염 발생 서울시는 7일 0시 기준 코로나19 확진자가 전날 1038명 증가해 누적 기준 23만3457명을 기록했다고 밝혔다. 서울 코로나19 확진자는 지난 4일부터 1412→1208...</v>
       </c>
       <c r="D18" t="str">
-        <v>1일 전</v>
+        <v>13시간 전</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>서울 코로나 확진자 1038명…사흘 연속 1000명대</v>
+        <v>코로나19 위중증 환자 839명…신규확진 3717명</v>
       </c>
       <c r="B19" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220107_0001716522&amp;cID=10201&amp;pID=10200</v>
+        <v>http://news.tvchosun.com/site/data/html_dir/2022/01/07/2022010790038.html</v>
       </c>
       <c r="C19" t="str">
-        <v>기사내용 요약어린이집·요양병원 등 집단감염 발생 서울시는 7일 0시 기준 코로나19 확진자가 전날 1038명 증가해 누적 기준 23만3457명을 기록했다고 밝혔다. 서울 코로나19 확진자는 지난 4일부터 1412→1208...</v>
+        <v>코로나19 신규 확진자 수가 사흘 만에 다시 3000명대로 내려왔다. 목요일 기준(발표일로는 금요일... 질병관리청 중앙방역대책본부는 7일 오전 0시 기준 코로나19 신규 확진자가 3717명 늘어 총 65만7508명이라고...</v>
       </c>
       <c r="D19" t="str">
-        <v>13시간 전</v>
+        <v>15시간 전</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>코로나19 위중증 환자 839명…신규확진 3717명</v>
+        <v>코로나19 '먹는 치료제' 다음주 국내 들어온다(종합)</v>
       </c>
       <c r="B20" t="str">
-        <v>http://news.tvchosun.com/site/data/html_dir/2022/01/07/2022010790038.html</v>
+        <v>http://yna.kr/AKR20220107029251001?did=1195m</v>
       </c>
       <c r="C20" t="str">
-        <v>코로나19 신규 확진자 수가 사흘 만에 다시 3000명대로 내려왔다. 목요일 기준(발표일로는 금요일... 질병관리청 중앙방역대책본부는 7일 오전 0시 기준 코로나19 신규 확진자가 3717명 늘어 총 65만7508명이라고...</v>
+        <v>신종 코로나바이러스 감염증(코로나19) 대응과 관련, "다음 주에는 경구용 치료제(먹는 치료제)가 국내로 들어온다"고 밝혔다. 김 총리는 이날 정부서울청사에서 주재한 코로나19 중앙재난안전대책본부 회의에서 이같이...</v>
       </c>
       <c r="D20" t="str">
         <v>15시간 전</v>
@@ -662,139 +662,139 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>美 연구팀 "코로나19 백신, 여성 생리주기에 영향"</v>
+        <v>달라지는 코로나 검사 "고위험군 PCR, 무증상 자가검사키트"</v>
       </c>
       <c r="B21" t="str">
-        <v>http://mbn.mk.co.kr/pages/news/newsView.php?category=mbn00013&amp;news_seq_no=4676062</v>
+        <v>http://www.wowtv.co.kr/NewsCenter/News/Read?articleId=A202201070270&amp;t=NN</v>
       </c>
       <c r="C21" t="str">
-        <v>코로나19 백신이 여성의 생리 주기에 영향을 미친다는 미국 연구팀의 연구 결과가 나왔습니다. 현지... 매체에 따르면 이들 연구팀은 코로나19 백신을 최소 1회 접종받은 여성은 백신을 접종하지 않은 여성에 비해 생리...</v>
+        <v>이기일 중앙재난안전대책본부 제1통제관은 이날 코로나19 대응 정례브리핑에서 "감염 가능성이 높은 경우... 정부는 특히 코로나19 백신 미접종자에 대해 질병관리청에서 별도의 관리 방안을 통해 진단검사를 하는 방법을...</v>
       </c>
       <c r="D21" t="str">
-        <v>8시간 전</v>
+        <v>6시간 전</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>[2보] 코로나19 '먹는 치료제' 다음주 국내 들어온다</v>
+        <v>일본 코로나 신규확진 6천명 돌파…일주일 사이에 12배로 확대(종합)</v>
       </c>
       <c r="B22" t="str">
-        <v>http://yna.kr/AKR20220107029200001?did=1195m</v>
+        <v>http://yna.kr/AKR20220107125651073?did=1195m</v>
       </c>
       <c r="C22" t="str">
-        <v>김총리 "오미크론 변이 대응해 '속도' 중심으로 방역체계 혁신" "방역패스 혼란 길어지면 국민 피해…법원, 본안판결 신속히 해달라" 김부겸 국무총리는 7일 신종 코로나바이러스 감염증(코로나19) 대응과 관련, "다음...</v>
+        <v>6％ 불과 김호준 이세원 특파원 = 코로나19가 급속히 확산하는 일본에서 3개 광역지방자치단체에 방역 비상조치가 적용된다. 기시다 후미오(岸田文雄) 일본 총리는 7일 오후 열린 코로나19 대책본부 회의에서 오키나와...</v>
       </c>
       <c r="D22" t="str">
-        <v>16시간 전</v>
+        <v>1시간 전</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>국내 첫 '32주 임신부' 코로나 사망자 발생…미접종 기저질환자</v>
+        <v>광화문 집결한 경기도 상인들 “코로나 피해 100% 보상하라”</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.news1.kr/articles/?4547749</v>
+        <v>http://www.edaily.co.kr/news/newspath.asp?newsid=02784726632195424</v>
       </c>
       <c r="C23" t="str">
-        <v>국내 첫 임신부 코로나19 사망자가 발생했다. 지난해 11월 확진자인 임신부가 태아를 사산하고 사후 결과... 방역당국은 7일 출입기자단에게 국내에서 보고된 첫 번째 임신부 코로나19 사망 사례라며 확진 당시 임신...</v>
+        <v>전에 코로나 피해 소상공인과 자영업자에 대해 사각지대 없는 100% 손실보상을 즉각 협의하라”고 성명을 발표했다. 경기도상인연합회는 7일 오후 광화문 광장 시민열린마당에서 집회를 열고 코로나19 피해 소상공인과...</v>
       </c>
       <c r="D23" t="str">
-        <v>9시간 전</v>
+        <v>7시간 전</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>국내 첫 코로나19 확진 임산부 사망…신생아는 ‘음성’</v>
+        <v>코로나19 확진 임산부 국내 첫 사망…신생아는 ‘음성’</v>
       </c>
       <c r="B24" t="str">
-        <v>https://news.kbs.co.kr/news/view.do?ncd=5367248&amp;ref=A</v>
+        <v>https://news.kbs.co.kr/news/view.do?ncd=5367352&amp;ref=A</v>
       </c>
       <c r="C24" t="str">
-        <v>국내에서 코로나19에 확진됐던 임산부가 처음으로 사망하는 사례가 나왔습니다. 중앙방역대책본부는 오늘(7일) “국내에 보고된 첫번째 임신부 코로나19 사망 사례가 발생했다”고 밝혔습니다. 방대본은 사망 임산부는...</v>
+        <v>국내에서 처음으로 코로나19에 확진된 임산부가 숨졌습니다. 기저질환이 있었고 백신은 맞지 않은 상태였는데요. 신생아는 음성 판정을 받았고 건강한 것으로 확인됐습니다. 최유경 기자가 보도합니다. [리포트] 코로나1...</v>
       </c>
       <c r="D24" t="str">
-        <v>9시간 전</v>
+        <v>5시간 전</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>전 세계 코로나19 확진자 2년만에 3억명 넘었다</v>
+        <v>'먹는 코로나 치료제' 이르면 다음 주 중 국내 도입</v>
       </c>
       <c r="B25" t="str">
-        <v>http://www.edaily.co.kr/news/newspath.asp?newsid=02778166632195424</v>
+        <v>https://health.chosun.com/site/data/html_dir/2022/01/07/2022010700968.html</v>
       </c>
       <c r="C25" t="str">
-        <v>전 세계 코로나19 확진자가 3억명을 돌파한 것으로 집계됐다. 코로나19 누적 확진자 수가 2년만에 3억명을 돌파한 것으로 집계됐다. (사진= AFP) 미국 존스홉킨스대학은 7일(현지시간) 그리니치표준시(GMT) 기준으로...</v>
+        <v>코로나19 게임체인저로 기대를 모으는 경구용 코로나19 치료제가 다음 주 중 국내에 들어올 예정이다. 김부겸 국무총리는 7일 코로나19 중앙재난안전대책본부 회의에서 “다음 주에는 경구용 치료제가 국내로 들어올...</v>
       </c>
       <c r="D25" t="str">
-        <v>7시간 전</v>
+        <v>13시간 전</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>식약처 코로나19 치료제 '베클루리주' 허가 변경, 폐렴에도 사용</v>
+        <v>작년 12월 음식·숙박업 카드 사용액, 코로나 이전의 81.7% 불과</v>
       </c>
       <c r="B26" t="str">
-        <v>http://www.fnnews.com/news/202201071444391711</v>
+        <v>http://yna.kr/AKR20220105171700002?did=1195m</v>
       </c>
       <c r="C26" t="str">
-        <v>식품의약품안전처는 코로나19 치료제 ‘베클루리주(렘데시비르)'를 중증 또는 폐렴에 사용할 수 있도록... 베클루리주는 지난 2020년 7월 3상 임상시험 결과 등을 시판 후 제출하는 조건으로 ‘코로나19에 확진된 3.5kg...</v>
+        <v>늘었지만, 코로나19 이전 수준에는 크게 못 미치는 것으로 나타났다. 6일 더불어민주당 김회재 의원이... 작년 11월 1일부터 시작된 단계적 일상 회복(위드 코로나)에 힘입어 각종 모임과 외식, 여행 관련 지출이...</v>
       </c>
       <c r="D26" t="str">
-        <v>9시간 전</v>
+        <v>1일 전</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>'먹는 코로나 치료제' 이르면 다음 주 중 국내 도입</v>
+        <v>함익병 "정부 코로나 대응 비판한 영상, 강제 삭제…명백한 탄압"</v>
       </c>
       <c r="B27" t="str">
-        <v>https://health.chosun.com/site/data/html_dir/2022/01/07/2022010700968.html</v>
+        <v>http://mbn.mk.co.kr/pages/news/newsView.php?category=mbn00009&amp;news_seq_no=4675990</v>
       </c>
       <c r="C27" t="str">
-        <v>코로나19 게임체인저로 기대를 모으는 경구용 코로나19 치료제가 다음 주 중 국내에 들어올 예정이다. 김부겸 국무총리는 7일 코로나19 중앙재난안전대책본부 회의에서 “다음 주에는 경구용 치료제가 국내로 들어올...</v>
+        <v>코로나19 상황에 대한 정부의 무리한 대응을 비판한 의학 채널 유튜브 영상이 삭제 처리됐습니다. 해당 영상에... 유튜브 '의학채널 비온뒤' 담당자는 6일 채널 커뮤니티에 "6일 오후 2시에 업로드했던 '코로나 백신 1부 더...</v>
       </c>
       <c r="D27" t="str">
-        <v>13시간 전</v>
+        <v>9시간 전</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>서울 코로나 확진자 1038명…사흘 연속 1000명대</v>
+        <v>"코로나19 영향으로 한미일 국방장관회담 연기"</v>
       </c>
       <c r="B28" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220107_0001716522&amp;cID=10201&amp;pID=10200</v>
+        <v>http://www.newsis.com/view/?id=NISX20220106_0001714712&amp;cID=10101&amp;pID=10100</v>
       </c>
       <c r="C28" t="str">
-        <v>기사내용 요약어린이집·요양병원 등 집단감염 발생 서울시는 7일 0시 기준 코로나19 확진자가 전날 1038명 증가해 누적 기준 23만3457명을 기록했다고 밝혔다. 서울 코로나19 확진자는 지난 4일부터 1412→1208...</v>
+        <v>확진·美 코로나19 감염 확산 영향" 미국 하와이에서 이달 중순 열릴 예정이었던 한미일 국방장관 회담이 보류됐다고 6일 일본 NHK가 보도했다. 보도에 따르면 로이드 오스틴 미국 국방장관의 코로나19 확진, 미국의...</v>
       </c>
       <c r="D28" t="str">
-        <v>13시간 전</v>
+        <v>1일 전</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>코로나19 위중증 환자 839명…신규확진 3717명</v>
+        <v>서울 코로나 확진자 1038명…사흘 연속 1000명대</v>
       </c>
       <c r="B29" t="str">
-        <v>http://news.tvchosun.com/site/data/html_dir/2022/01/07/2022010790038.html</v>
+        <v>http://www.newsis.com/view/?id=NISX20220107_0001716522&amp;cID=10201&amp;pID=10200</v>
       </c>
       <c r="C29" t="str">
-        <v>코로나19 신규 확진자 수가 사흘 만에 다시 3000명대로 내려왔다. 목요일 기준(발표일로는 금요일... 질병관리청 중앙방역대책본부는 7일 오전 0시 기준 코로나19 신규 확진자가 3717명 늘어 총 65만7508명이라고...</v>
+        <v>기사내용 요약어린이집·요양병원 등 집단감염 발생 서울시는 7일 0시 기준 코로나19 확진자가 전날 1038명 증가해 누적 기준 23만3457명을 기록했다고 밝혔다. 서울 코로나19 확진자는 지난 4일부터 1412→1208...</v>
       </c>
       <c r="D29" t="str">
-        <v>15시간 전</v>
+        <v>13시간 전</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>코로나19 '먹는 치료제' 다음주 국내 들어온다(종합)</v>
+        <v>코로나19 위중증 환자 839명…신규확진 3717명</v>
       </c>
       <c r="B30" t="str">
-        <v>http://yna.kr/AKR20220107029251001?did=1195m</v>
+        <v>http://news.tvchosun.com/site/data/html_dir/2022/01/07/2022010790038.html</v>
       </c>
       <c r="C30" t="str">
-        <v>신종 코로나바이러스 감염증(코로나19) 대응과 관련, "다음 주에는 경구용 치료제(먹는 치료제)가 국내로 들어온다"고 밝혔다. 김 총리는 이날 정부서울청사에서 주재한 코로나19 중앙재난안전대책본부 회의에서 이같이...</v>
+        <v>코로나19 신규 확진자 수가 사흘 만에 다시 3000명대로 내려왔다. 목요일 기준(발표일로는 금요일... 질병관리청 중앙방역대책본부는 7일 오전 0시 기준 코로나19 신규 확진자가 3717명 늘어 총 65만7508명이라고...</v>
       </c>
       <c r="D30" t="str">
         <v>15시간 전</v>
@@ -802,16 +802,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>달라지는 코로나 검사 "고위험군 PCR, 무증상 자가검사키트"</v>
+        <v>美 연구팀 "코로나19 백신, 여성 생리주기에 영향"</v>
       </c>
       <c r="B31" t="str">
-        <v>http://www.wowtv.co.kr/NewsCenter/News/Read?articleId=A202201070270&amp;t=NN</v>
+        <v>http://mbn.mk.co.kr/pages/news/newsView.php?category=mbn00013&amp;news_seq_no=4676062</v>
       </c>
       <c r="C31" t="str">
-        <v>이기일 중앙재난안전대책본부 제1통제관은 이날 코로나19 대응 정례브리핑에서 "감염 가능성이 높은 경우... 정부는 특히 코로나19 백신 미접종자에 대해 질병관리청에서 별도의 관리 방안을 통해 진단검사를 하는 방법을...</v>
+        <v>코로나19 백신이 여성의 생리 주기에 영향을 미친다는 미국 연구팀의 연구 결과가 나왔습니다. 현지... 매체에 따르면 이들 연구팀은 코로나19 백신을 최소 1회 접종받은 여성은 백신을 접종하지 않은 여성에 비해 생리...</v>
       </c>
       <c r="D31" t="str">
-        <v>6시간 전</v>
+        <v>8시간 전</v>
       </c>
     </row>
   </sheetData>

--- a/crawling_covid_news.xlsx
+++ b/crawling_covid_news.xlsx
@@ -396,422 +396,422 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>서울구치소에서 직원 3명 코로나19 확진</v>
+        <v>[2보] 코로나19 '먹는 치료제' 다음주 국내 들어온다</v>
       </c>
       <c r="B2" t="str">
-        <v>http://yna.kr/AKR20220107146600004?did=1195m</v>
+        <v>http://yna.kr/AKR20220107029200001?did=1195m</v>
       </c>
       <c r="C2" t="str">
-        <v>서울구치소에서 3명의 신종 코로나바이러스 감염증(코로나19) 확진자가 발생했다. 7일 법무부에 따르면 서울구치소에 근무 중인 직원 1명이 이달 4일 코로나19 확진 판정을 받았다. 법무부는 확진자를 격리하고...</v>
+        <v>김총리 "오미크론 변이 대응해 '속도' 중심으로 방역체계 혁신" "방역패스 혼란 길어지면 국민 피해…법원, 본안판결 신속히 해달라" 김부겸 국무총리는 7일 신종 코로나바이러스 감염증(코로나19) 대응과 관련, "다음...</v>
       </c>
       <c r="D2" t="str">
-        <v>5시간 전</v>
+        <v>17시간 전</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>다음주 들어오는 코로나 치료제, 언제부터 누가 먹나</v>
+        <v>국내 첫 '32주 임신부' 코로나 사망자 발생…미접종 기저질환자</v>
       </c>
       <c r="B3" t="str">
-        <v>http://moneys.mt.co.kr/news/mwView.php?no=2022010713388031665</v>
+        <v>https://www.news1.kr/articles/?4547749</v>
       </c>
       <c r="C3" t="str">
-        <v>정부가 선구매한 경구용(먹는) 신종 코로나바이러스 감염증(코로나19) 치료제 총 100만4000명분의 초도 물량이 다음주에 국내에 도입된다. 투약 대상 등 세부적인 기준도 다음주 발표될 예정이다. 이기일...</v>
+        <v>국내 첫 임신부 코로나19 사망자가 발생했다. 지난해 11월 확진자인 임신부가 태아를 사산하고 사후 결과... 방역당국은 7일 출입기자단에게 국내에서 보고된 첫 번째 임신부 코로나19 사망 사례라며 확진 당시 임신...</v>
       </c>
       <c r="D3" t="str">
-        <v>10시간 전</v>
+        <v>11시간 전</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>[포켓이슈] 코로나, 지폐 유통수명 늘렸다?</v>
+        <v>국내 첫 코로나19 확진 임산부 사망…신생아는 ‘음성’</v>
       </c>
       <c r="B4" t="str">
-        <v>http://yna.kr/AKR20220107082300797?did=1195m</v>
+        <v>https://news.kbs.co.kr/news/view.do?ncd=5367248&amp;ref=A</v>
       </c>
       <c r="C4" t="str">
-        <v>코로나19 장기화로 비대면 결제가 늘면서 지폐 유통 수명이 길어졌는데요. 6일 한국은행이 밝힌 '2021년... 코로나19의 확산이 본격화된 2020년과 2021년을 비교해봐도 수치 차이가 확연한데요. 실제 2021년 발행 지폐...</v>
+        <v>국내에서 코로나19에 확진됐던 임산부가 처음으로 사망하는 사례가 나왔습니다. 중앙방역대책본부는 오늘(7일) “국내에 보고된 첫번째 임신부 코로나19 사망 사례가 발생했다”고 밝혔습니다. 방대본은 사망 임산부는...</v>
       </c>
       <c r="D4" t="str">
-        <v>9시간 전</v>
+        <v>11시간 전</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>국내 첫 임신부 코로나 사망…백신 미접종</v>
+        <v>전 세계 코로나19 확진자 2년만에 3억명 넘었다</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.nocutnews.co.kr/news/5686504</v>
+        <v>http://www.edaily.co.kr/news/newspath.asp?newsid=02778166632195424</v>
       </c>
       <c r="C5" t="str">
-        <v>핵심요약출산후 증상 심해져…미접종 기저질환자 국내에서 코로나19 확진 임신부가 처음으로 사망하는 사례가 발생했다. 해당 임산부는 지난 4일 코로나19에 확진돼 입원치료 중 출산, 증상이 악화했다. 7일...</v>
+        <v>전 세계 코로나19 확진자가 3억명을 돌파한 것으로 집계됐다. 코로나19 누적 확진자 수가 2년만에 3억명을 돌파한 것으로 집계됐다. (사진= AFP) 미국 존스홉킨스대학은 7일(현지시간) 그리니치표준시(GMT) 기준으로...</v>
       </c>
       <c r="D5" t="str">
-        <v>7시간 전</v>
+        <v>9시간 전</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>대전시, 코로나 중환자실 18병상 추가확보…46병상 운영</v>
+        <v>추가 접종한 오스트리아 총리, 코로나19 양성</v>
       </c>
       <c r="B6" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220106_0001715512&amp;cID=10807&amp;pID=10800</v>
+        <v>http://yna.kr/AKR20220108002000088?did=1195m</v>
       </c>
       <c r="C6" t="str">
-        <v>기사내용 요약지역내 위중증 병상 충남대병원 38개, 건양대병원 8개 대전시는 코로나19 전담... 이동한 시 보건복지국장은 “감염병 전담병원을 계속 확충해 시민들이 안전하게 코로나19 치료를 받을 수 있도록 총력을...</v>
+        <v>임은진 특파원 = 카를 네함머 오스트리아 총리가 신종 코로나바이러스 감염증(코로나19) 검사에서 양성 판정을 받았다고 현지 공영방송 ORF가 7일(현지시간) 보도했다. 총리실은 "네함머 총리가 현재 자택에서 격리...</v>
       </c>
       <c r="D6" t="str">
-        <v>1일 전</v>
+        <v>1시간 전</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>김부겸 “먹는 코로나 치료제, 다음주 국내 들어와…신속 사용 준비”</v>
+        <v>식약처 코로나19 치료제 '베클루리주' 허가 변경, 폐렴에도 사용</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.hani.co.kr/arti/politics/politics_general/1026387.html</v>
+        <v>http://www.fnnews.com/news/202201071444391711</v>
       </c>
       <c r="C7" t="str">
-        <v>김 총리는 7일 정부서울청사에서 열린 코로나19 중앙재난안전대책본부 회의에서 “확산 속도가 매우 빠른 오미크론을 감당해 내려면 지금의 방역체계 전반을 ‘속도’와 ‘효율성’의 관점에서 전면적으로 혁신해야...</v>
+        <v>식품의약품안전처는 코로나19 치료제 ‘베클루리주(렘데시비르)'를 중증 또는 폐렴에 사용할 수 있도록... 베클루리주는 지난 2020년 7월 3상 임상시험 결과 등을 시판 후 제출하는 조건으로 ‘코로나19에 확진된 3.5kg...</v>
       </c>
       <c r="D7" t="str">
-        <v>15시간 전</v>
+        <v>11시간 전</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>공수처 직원 1명 코로나 확진...’통신조회 논란’ 현안 논의할 검사회의 연기</v>
+        <v>'먹는 코로나 치료제' 이르면 다음 주 중 국내 도입</v>
       </c>
       <c r="B8" t="str">
-        <v>https://biz.chosun.com/topics/law_firm/2022/01/07/ZH2VSM6XZRHNNNIKWFQDIL6ZKI/?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</v>
+        <v>https://health.chosun.com/site/data/html_dir/2022/01/07/2022010700968.html</v>
       </c>
       <c r="C8" t="str">
-        <v>예정이었지만 코로나19 여파로 연기됐다. 공수처는 7일 “직원 1명이 코로나19 유전자증폭(PCR) 검사결과 양성 판정을 받았다”며 “이날 오후 예정돼 있던 시무식과 검사회의는 연기됐다”고 밝혔다. 공수처는 소속 직원...</v>
+        <v>코로나19 게임체인저로 기대를 모으는 경구용 코로나19 치료제가 다음 주 중 국내에 들어올 예정이다. 김부겸 국무총리는 7일 코로나19 중앙재난안전대책본부 회의에서 “다음 주에는 경구용 치료제가 국내로 들어올...</v>
       </c>
       <c r="D8" t="str">
-        <v>14시간 전</v>
+        <v>15시간 전</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>영국 코로나19 입원 10명 중 4명은 다른 사유로 입원 후 확진</v>
+        <v>삼성전자, 지난해 매출 279조 '역대 최고'…코로나 뚫고 '반도체 호황'(종합2...</v>
       </c>
       <c r="B9" t="str">
-        <v>http://yna.kr/AKR20220108000500085?did=1195m</v>
+        <v>http://www.newsis.com/view/?id=NISX20220107_0001716643&amp;cID=13001&amp;pID=13000</v>
       </c>
       <c r="C9" t="str">
-        <v>코로나19 증상 심각해 입원한 경우는 63% 최윤정 특파원 = 영국 잉글랜드의 코로나19 입원환자 37%는 다른 사유로 입원한 뒤 확진된 경우이고 실제 코로나19 증상으로 입원한 환자는 63%로 나타났다. 국민보건서비스...</v>
+        <v>삼성전자는 뜻밖의 코로나19발 특수로 사상 최대 매출 실적을 기록했다. 지난해 삼성전자의 연간 매출액은 279조400억원으로 잠정 집계됐다. 전년 236조8100억원 대비 17.83% 증가했다. 삼성전자 종전 최고인 2018년...</v>
       </c>
       <c r="D9" t="str">
-        <v>28분 전</v>
+        <v>11시간 전</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>삼성전자, 지난해 매출 279조 '역대 최고'…코로나 뚫고 '반도체 호황'(종합2...</v>
+        <v>주한미군 코로나 확진 연일 최다 경신… 문 대통령 "특별 대책 마련하라"</v>
       </c>
       <c r="B10" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220107_0001716643&amp;cID=13001&amp;pID=13000</v>
+        <v>http://moneys.mt.co.kr/news/mwView.php?no=2022010714298096482</v>
       </c>
       <c r="C10" t="str">
-        <v>삼성전자는 뜻밖의 코로나19발 특수로 사상 최대 매출 실적을 기록했다. 지난해 삼성전자의 연간 매출액은 279조400억원으로 잠정 집계됐다. 전년 236조8100억원 대비 17.83% 증가했다. 삼성전자 종전 최고인 2018년...</v>
+        <v>문재인 대통령이 최근 신종 코로나바이러스 감염증(코로나19) 국내 거주 외국인 확진자가 증가하고 주한미군 기지 등에서 다수 확진자가 발생하는 것에 대해 우려하며 철저한 방역 관리를 지시했다. 박경미 청와대...</v>
       </c>
       <c r="D10" t="str">
-        <v>9시간 전</v>
+        <v>11시간 전</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>광주 서구, '코로나 블루 극복' 도시 녹화 사업 박차</v>
+        <v>코로나19 '먹는 치료제' 다음주 국내 들어온다(종합)</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220106_0001715186&amp;cID=10899&amp;pID=10800</v>
+        <v>http://yna.kr/AKR20220107029251001?did=1195m</v>
       </c>
       <c r="C11" t="str">
-        <v>기사내용 요약사업비 37억여 원 들여 생활정원·도심 숲 조성 광주 서구가 코로나19 장기화에 따른 시민들의... 우선 '코로나 블루'로 지친 시민들이 위안을 얻을 수 있도록 서구보건소·구 청사 등 공공시설에 이색적이고...</v>
+        <v>신종 코로나바이러스 감염증(코로나19) 대응과 관련, "다음 주에는 경구용 치료제(먹는 치료제)가 국내로 들어온다"고 밝혔다. 김 총리는 이날 정부서울청사에서 주재한 코로나19 중앙재난안전대책본부 회의에서 이같이...</v>
       </c>
       <c r="D11" t="str">
-        <v>1일 전</v>
+        <v>17시간 전</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>[2보] 코로나19 '먹는 치료제' 다음주 국내 들어온다</v>
+        <v>코로나 ‘먹는 치료제’ 다음 주 국내 도입된다</v>
       </c>
       <c r="B12" t="str">
-        <v>http://yna.kr/AKR20220107029200001?did=1195m</v>
+        <v>http://news.kmib.co.kr/article/view.asp?arcid=0016646515&amp;code=61121111&amp;cp=nv</v>
       </c>
       <c r="C12" t="str">
-        <v>김총리 "오미크론 변이 대응해 '속도' 중심으로 방역체계 혁신" "방역패스 혼란 길어지면 국민 피해…법원, 본안판결 신속히 해달라" 김부겸 국무총리는 7일 신종 코로나바이러스 감염증(코로나19) 대응과 관련, "다음...</v>
+        <v>이달 중순부터 미국 화이자사의 코로나19 먹는 치료제(경구용 치료제) ‘팍스로이드’가 도입된다. 방역... 앞서 김부겸 국무총리도 이날 정부서울청사에서 주재한 코로나19 중대본 회의에서 “다음 주에는 경구용...</v>
       </c>
       <c r="D12" t="str">
-        <v>16시간 전</v>
+        <v>12시간 전</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>국내 첫 '32주 임신부' 코로나 사망자 발생…미접종 기저질환자</v>
+        <v>일본 코로나 신규확진 6천명 돌파…일주일 사이에 12배로 확대(종합)</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.news1.kr/articles/?4547749</v>
+        <v>http://yna.kr/AKR20220107125651073?did=1195m</v>
       </c>
       <c r="C13" t="str">
-        <v>국내 첫 임신부 코로나19 사망자가 발생했다. 지난해 11월 확진자인 임신부가 태아를 사산하고 사후 결과... 방역당국은 7일 출입기자단에게 국내에서 보고된 첫 번째 임신부 코로나19 사망 사례라며 확진 당시 임신...</v>
+        <v>6％ 불과 김호준 이세원 특파원 = 코로나19가 급속히 확산하는 일본에서 3개 광역지방자치단체에 방역 비상조치가 적용된다. 기시다 후미오(岸田文雄) 일본 총리는 7일 오후 열린 코로나19 대책본부 회의에서 오키나와...</v>
       </c>
       <c r="D13" t="str">
-        <v>9시간 전</v>
+        <v>3시간 전</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>국내 첫 코로나19 확진 임산부 사망…신생아는 ‘음성’</v>
+        <v>광화문 집결한 경기도 상인들 “코로나 피해 100% 보상하라”</v>
       </c>
       <c r="B14" t="str">
-        <v>https://news.kbs.co.kr/news/view.do?ncd=5367248&amp;ref=A</v>
+        <v>http://www.edaily.co.kr/news/newspath.asp?newsid=02784726632195424</v>
       </c>
       <c r="C14" t="str">
-        <v>국내에서 코로나19에 확진됐던 임산부가 처음으로 사망하는 사례가 나왔습니다. 중앙방역대책본부는 오늘(7일) “국내에 보고된 첫번째 임신부 코로나19 사망 사례가 발생했다”고 밝혔습니다. 방대본은 사망 임산부는...</v>
+        <v>전에 코로나 피해 소상공인과 자영업자에 대해 사각지대 없는 100% 손실보상을 즉각 협의하라”고 성명을 발표했다. 경기도상인연합회는 7일 오후 광화문 광장 시민열린마당에서 집회를 열고 코로나19 피해 소상공인과...</v>
       </c>
       <c r="D14" t="str">
-        <v>9시간 전</v>
+        <v>8시간 전</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>전 세계 코로나19 확진자 2년만에 3억명 넘었다</v>
+        <v>영국 코로나19에 의료 넘어 공공 서비스 전반 불안</v>
       </c>
       <c r="B15" t="str">
-        <v>http://www.edaily.co.kr/news/newspath.asp?newsid=02778166632195424</v>
+        <v>http://yna.kr/AKR20220108002300085?did=1195m</v>
       </c>
       <c r="C15" t="str">
-        <v>전 세계 코로나19 확진자가 3억명을 돌파한 것으로 집계됐다. 코로나19 누적 확진자 수가 2년만에 3억명을 돌파한 것으로 집계됐다. (사진= AFP) 미국 존스홉킨스대학은 7일(현지시간) 그리니치표준시(GMT) 기준으로...</v>
+        <v>영국에서 코로나19 자가격리로 인력난이 심해지면서 의료를 넘어 소방, 경찰, 행정 등 공공 서비스 전반이... 의료·소방·경찰·행정 당국은 코로나19 감염 증가와 필수인력 격리 대응과 관련해 협력을 강화하기로 했다....</v>
       </c>
       <c r="D15" t="str">
-        <v>7시간 전</v>
+        <v>47분 전</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>식약처 코로나19 치료제 '베클루리주' 허가 변경, 폐렴에도 사용</v>
+        <v>코로나19 확진 임산부 국내 첫 사망…신생아는 ‘음성’</v>
       </c>
       <c r="B16" t="str">
-        <v>http://www.fnnews.com/news/202201071444391711</v>
+        <v>https://news.kbs.co.kr/news/view.do?ncd=5367352&amp;ref=A</v>
       </c>
       <c r="C16" t="str">
-        <v>식품의약품안전처는 코로나19 치료제 ‘베클루리주(렘데시비르)'를 중증 또는 폐렴에 사용할 수 있도록... 베클루리주는 지난 2020년 7월 3상 임상시험 결과 등을 시판 후 제출하는 조건으로 ‘코로나19에 확진된 3.5kg...</v>
+        <v>국내에서 처음으로 코로나19에 확진된 임산부가 숨졌습니다. 기저질환이 있었고 백신은 맞지 않은 상태였는데요. 신생아는 음성 판정을 받았고 건강한 것으로 확인됐습니다. 최유경 기자가 보도합니다. [리포트] 코로나1...</v>
       </c>
       <c r="D16" t="str">
-        <v>9시간 전</v>
+        <v>7시간 전</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>'먹는 코로나 치료제' 이르면 다음 주 중 국내 도입</v>
+        <v>삼성전자, 지난해 매출 279조 '역대 최고'…코로나 뚫고 '반도체 호황'(종합2...</v>
       </c>
       <c r="B17" t="str">
-        <v>https://health.chosun.com/site/data/html_dir/2022/01/07/2022010700968.html</v>
+        <v>http://www.newsis.com/view/?id=NISX20220107_0001716643&amp;cID=13001&amp;pID=13000</v>
       </c>
       <c r="C17" t="str">
-        <v>코로나19 게임체인저로 기대를 모으는 경구용 코로나19 치료제가 다음 주 중 국내에 들어올 예정이다. 김부겸 국무총리는 7일 코로나19 중앙재난안전대책본부 회의에서 “다음 주에는 경구용 치료제가 국내로 들어올...</v>
+        <v>삼성전자는 뜻밖의 코로나19발 특수로 사상 최대 매출 실적을 기록했다. 지난해 삼성전자의 연간 매출액은 279조400억원으로 잠정 집계됐다. 전년 236조8100억원 대비 17.83% 증가했다. 삼성전자 종전 최고인 2018년...</v>
       </c>
       <c r="D17" t="str">
-        <v>13시간 전</v>
+        <v>11시간 전</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>서울 코로나 확진자 1038명…사흘 연속 1000명대</v>
+        <v>'먹는 코로나 치료제' 이르면 다음 주 중 국내 도입</v>
       </c>
       <c r="B18" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220107_0001716522&amp;cID=10201&amp;pID=10200</v>
+        <v>https://health.chosun.com/site/data/html_dir/2022/01/07/2022010700968.html</v>
       </c>
       <c r="C18" t="str">
-        <v>기사내용 요약어린이집·요양병원 등 집단감염 발생 서울시는 7일 0시 기준 코로나19 확진자가 전날 1038명 증가해 누적 기준 23만3457명을 기록했다고 밝혔다. 서울 코로나19 확진자는 지난 4일부터 1412→1208...</v>
+        <v>코로나19 게임체인저로 기대를 모으는 경구용 코로나19 치료제가 다음 주 중 국내에 들어올 예정이다. 김부겸 국무총리는 7일 코로나19 중앙재난안전대책본부 회의에서 “다음 주에는 경구용 치료제가 국내로 들어올...</v>
       </c>
       <c r="D18" t="str">
-        <v>13시간 전</v>
+        <v>15시간 전</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>코로나19 위중증 환자 839명…신규확진 3717명</v>
+        <v>작년 12월 음식·숙박업 카드 사용액, 코로나 이전의 81.7% 불과</v>
       </c>
       <c r="B19" t="str">
-        <v>http://news.tvchosun.com/site/data/html_dir/2022/01/07/2022010790038.html</v>
+        <v>http://yna.kr/AKR20220105171700002?did=1195m</v>
       </c>
       <c r="C19" t="str">
-        <v>코로나19 신규 확진자 수가 사흘 만에 다시 3000명대로 내려왔다. 목요일 기준(발표일로는 금요일... 질병관리청 중앙방역대책본부는 7일 오전 0시 기준 코로나19 신규 확진자가 3717명 늘어 총 65만7508명이라고...</v>
+        <v>늘었지만, 코로나19 이전 수준에는 크게 못 미치는 것으로 나타났다. 6일 더불어민주당 김회재 의원이... 작년 11월 1일부터 시작된 단계적 일상 회복(위드 코로나)에 힘입어 각종 모임과 외식, 여행 관련 지출이...</v>
       </c>
       <c r="D19" t="str">
-        <v>15시간 전</v>
+        <v>1일 전</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>코로나19 '먹는 치료제' 다음주 국내 들어온다(종합)</v>
+        <v>함익병 "정부 코로나 대응 비판한 영상, 강제 삭제…명백한 탄압"</v>
       </c>
       <c r="B20" t="str">
-        <v>http://yna.kr/AKR20220107029251001?did=1195m</v>
+        <v>http://mbn.mk.co.kr/pages/news/newsView.php?category=mbn00009&amp;news_seq_no=4675990</v>
       </c>
       <c r="C20" t="str">
-        <v>신종 코로나바이러스 감염증(코로나19) 대응과 관련, "다음 주에는 경구용 치료제(먹는 치료제)가 국내로 들어온다"고 밝혔다. 김 총리는 이날 정부서울청사에서 주재한 코로나19 중앙재난안전대책본부 회의에서 이같이...</v>
+        <v>코로나19 상황에 대한 정부의 무리한 대응을 비판한 의학 채널 유튜브 영상이 삭제 처리됐습니다. 해당 영상에... 유튜브 '의학채널 비온뒤' 담당자는 6일 채널 커뮤니티에 "6일 오후 2시에 업로드했던 '코로나 백신 1부 더...</v>
       </c>
       <c r="D20" t="str">
-        <v>15시간 전</v>
+        <v>10시간 전</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>달라지는 코로나 검사 "고위험군 PCR, 무증상 자가검사키트"</v>
+        <v>주한미군 코로나 확진 연일 최다 경신… 문 대통령 "특별 대책 마련하라"</v>
       </c>
       <c r="B21" t="str">
-        <v>http://www.wowtv.co.kr/NewsCenter/News/Read?articleId=A202201070270&amp;t=NN</v>
+        <v>http://moneys.mt.co.kr/news/mwView.php?no=2022010714298096482</v>
       </c>
       <c r="C21" t="str">
-        <v>이기일 중앙재난안전대책본부 제1통제관은 이날 코로나19 대응 정례브리핑에서 "감염 가능성이 높은 경우... 정부는 특히 코로나19 백신 미접종자에 대해 질병관리청에서 별도의 관리 방안을 통해 진단검사를 하는 방법을...</v>
+        <v>문재인 대통령이 최근 신종 코로나바이러스 감염증(코로나19) 국내 거주 외국인 확진자가 증가하고 주한미군 기지 등에서 다수 확진자가 발생하는 것에 대해 우려하며 철저한 방역 관리를 지시했다. 박경미 청와대...</v>
       </c>
       <c r="D21" t="str">
-        <v>6시간 전</v>
+        <v>11시간 전</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>일본 코로나 신규확진 6천명 돌파…일주일 사이에 12배로 확대(종합)</v>
+        <v>"코로나19 영향으로 한미일 국방장관회담 연기"</v>
       </c>
       <c r="B22" t="str">
-        <v>http://yna.kr/AKR20220107125651073?did=1195m</v>
+        <v>http://www.newsis.com/view/?id=NISX20220106_0001714712&amp;cID=10101&amp;pID=10100</v>
       </c>
       <c r="C22" t="str">
-        <v>6％ 불과 김호준 이세원 특파원 = 코로나19가 급속히 확산하는 일본에서 3개 광역지방자치단체에 방역 비상조치가 적용된다. 기시다 후미오(岸田文雄) 일본 총리는 7일 오후 열린 코로나19 대책본부 회의에서 오키나와...</v>
+        <v>확진·美 코로나19 감염 확산 영향" 미국 하와이에서 이달 중순 열릴 예정이었던 한미일 국방장관 회담이 보류됐다고 6일 일본 NHK가 보도했다. 보도에 따르면 로이드 오스틴 미국 국방장관의 코로나19 확진, 미국의...</v>
       </c>
       <c r="D22" t="str">
-        <v>1시간 전</v>
+        <v>1일 전</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>광화문 집결한 경기도 상인들 “코로나 피해 100% 보상하라”</v>
+        <v>서울 코로나 확진자 1038명…사흘 연속 1000명대</v>
       </c>
       <c r="B23" t="str">
-        <v>http://www.edaily.co.kr/news/newspath.asp?newsid=02784726632195424</v>
+        <v>http://www.newsis.com/view/?id=NISX20220107_0001716522&amp;cID=10201&amp;pID=10200</v>
       </c>
       <c r="C23" t="str">
-        <v>전에 코로나 피해 소상공인과 자영업자에 대해 사각지대 없는 100% 손실보상을 즉각 협의하라”고 성명을 발표했다. 경기도상인연합회는 7일 오후 광화문 광장 시민열린마당에서 집회를 열고 코로나19 피해 소상공인과...</v>
+        <v>기사내용 요약어린이집·요양병원 등 집단감염 발생 서울시는 7일 0시 기준 코로나19 확진자가 전날 1038명 증가해 누적 기준 23만3457명을 기록했다고 밝혔다. 서울 코로나19 확진자는 지난 4일부터 1412→1208...</v>
       </c>
       <c r="D23" t="str">
-        <v>7시간 전</v>
+        <v>15시간 전</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>코로나19 확진 임산부 국내 첫 사망…신생아는 ‘음성’</v>
+        <v>코로나19 위중증 환자 839명…신규확진 3717명</v>
       </c>
       <c r="B24" t="str">
-        <v>https://news.kbs.co.kr/news/view.do?ncd=5367352&amp;ref=A</v>
+        <v>http://news.tvchosun.com/site/data/html_dir/2022/01/07/2022010790038.html</v>
       </c>
       <c r="C24" t="str">
-        <v>국내에서 처음으로 코로나19에 확진된 임산부가 숨졌습니다. 기저질환이 있었고 백신은 맞지 않은 상태였는데요. 신생아는 음성 판정을 받았고 건강한 것으로 확인됐습니다. 최유경 기자가 보도합니다. [리포트] 코로나1...</v>
+        <v>코로나19 신규 확진자 수가 사흘 만에 다시 3000명대로 내려왔다. 목요일 기준(발표일로는 금요일... 질병관리청 중앙방역대책본부는 7일 오전 0시 기준 코로나19 신규 확진자가 3717명 늘어 총 65만7508명이라고...</v>
       </c>
       <c r="D24" t="str">
-        <v>5시간 전</v>
+        <v>16시간 전</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>'먹는 코로나 치료제' 이르면 다음 주 중 국내 도입</v>
+        <v>美 연구팀 "코로나19 백신, 여성 생리주기에 영향"</v>
       </c>
       <c r="B25" t="str">
-        <v>https://health.chosun.com/site/data/html_dir/2022/01/07/2022010700968.html</v>
+        <v>http://mbn.mk.co.kr/pages/news/newsView.php?category=mbn00013&amp;news_seq_no=4676062</v>
       </c>
       <c r="C25" t="str">
-        <v>코로나19 게임체인저로 기대를 모으는 경구용 코로나19 치료제가 다음 주 중 국내에 들어올 예정이다. 김부겸 국무총리는 7일 코로나19 중앙재난안전대책본부 회의에서 “다음 주에는 경구용 치료제가 국내로 들어올...</v>
+        <v>코로나19 백신이 여성의 생리 주기에 영향을 미친다는 미국 연구팀의 연구 결과가 나왔습니다. 현지... 매체에 따르면 이들 연구팀은 코로나19 백신을 최소 1회 접종받은 여성은 백신을 접종하지 않은 여성에 비해 생리...</v>
       </c>
       <c r="D25" t="str">
-        <v>13시간 전</v>
+        <v>9시간 전</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>작년 12월 음식·숙박업 카드 사용액, 코로나 이전의 81.7% 불과</v>
+        <v>서울구치소에서 직원 3명 코로나19 확진</v>
       </c>
       <c r="B26" t="str">
-        <v>http://yna.kr/AKR20220105171700002?did=1195m</v>
+        <v>http://yna.kr/AKR20220107146600004?did=1195m</v>
       </c>
       <c r="C26" t="str">
-        <v>늘었지만, 코로나19 이전 수준에는 크게 못 미치는 것으로 나타났다. 6일 더불어민주당 김회재 의원이... 작년 11월 1일부터 시작된 단계적 일상 회복(위드 코로나)에 힘입어 각종 모임과 외식, 여행 관련 지출이...</v>
+        <v>서울구치소에서 3명의 신종 코로나바이러스 감염증(코로나19) 확진자가 발생했다. 7일 법무부에 따르면 서울구치소에 근무 중인 직원 1명이 이달 4일 코로나19 확진 판정을 받았다. 법무부는 확진자를 격리하고...</v>
       </c>
       <c r="D26" t="str">
-        <v>1일 전</v>
+        <v>7시간 전</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>함익병 "정부 코로나 대응 비판한 영상, 강제 삭제…명백한 탄압"</v>
+        <v>다음주 들어오는 코로나 치료제, 언제부터 누가 먹나</v>
       </c>
       <c r="B27" t="str">
-        <v>http://mbn.mk.co.kr/pages/news/newsView.php?category=mbn00009&amp;news_seq_no=4675990</v>
+        <v>http://moneys.mt.co.kr/news/mwView.php?no=2022010713388031665</v>
       </c>
       <c r="C27" t="str">
-        <v>코로나19 상황에 대한 정부의 무리한 대응을 비판한 의학 채널 유튜브 영상이 삭제 처리됐습니다. 해당 영상에... 유튜브 '의학채널 비온뒤' 담당자는 6일 채널 커뮤니티에 "6일 오후 2시에 업로드했던 '코로나 백신 1부 더...</v>
+        <v>정부가 선구매한 경구용(먹는) 신종 코로나바이러스 감염증(코로나19) 치료제 총 100만4000명분의 초도 물량이 다음주에 국내에 도입된다. 투약 대상 등 세부적인 기준도 다음주 발표될 예정이다. 이기일...</v>
       </c>
       <c r="D27" t="str">
-        <v>9시간 전</v>
+        <v>12시간 전</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>"코로나19 영향으로 한미일 국방장관회담 연기"</v>
+        <v>[포켓이슈] 코로나, 지폐 유통수명 늘렸다?</v>
       </c>
       <c r="B28" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220106_0001714712&amp;cID=10101&amp;pID=10100</v>
+        <v>http://yna.kr/AKR20220107082300797?did=1195m</v>
       </c>
       <c r="C28" t="str">
-        <v>확진·美 코로나19 감염 확산 영향" 미국 하와이에서 이달 중순 열릴 예정이었던 한미일 국방장관 회담이 보류됐다고 6일 일본 NHK가 보도했다. 보도에 따르면 로이드 오스틴 미국 국방장관의 코로나19 확진, 미국의...</v>
+        <v>코로나19 장기화로 비대면 결제가 늘면서 지폐 유통 수명이 길어졌는데요. 6일 한국은행이 밝힌 '2021년... 코로나19의 확산이 본격화된 2020년과 2021년을 비교해봐도 수치 차이가 확연한데요. 실제 2021년 발행 지폐...</v>
       </c>
       <c r="D28" t="str">
-        <v>1일 전</v>
+        <v>11시간 전</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>서울 코로나 확진자 1038명…사흘 연속 1000명대</v>
+        <v>국내 첫 임신부 코로나 사망…백신 미접종</v>
       </c>
       <c r="B29" t="str">
-        <v>http://www.newsis.com/view/?id=NISX20220107_0001716522&amp;cID=10201&amp;pID=10200</v>
+        <v>https://www.nocutnews.co.kr/news/5686504</v>
       </c>
       <c r="C29" t="str">
-        <v>기사내용 요약어린이집·요양병원 등 집단감염 발생 서울시는 7일 0시 기준 코로나19 확진자가 전날 1038명 증가해 누적 기준 23만3457명을 기록했다고 밝혔다. 서울 코로나19 확진자는 지난 4일부터 1412→1208...</v>
+        <v>핵심요약출산후 증상 심해져…미접종 기저질환자 국내에서 코로나19 확진 임신부가 처음으로 사망하는 사례가 발생했다. 해당 임산부는 지난 4일 코로나19에 확진돼 입원치료 중 출산, 증상이 악화했다. 7일...</v>
       </c>
       <c r="D29" t="str">
-        <v>13시간 전</v>
+        <v>9시간 전</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>코로나19 위중증 환자 839명…신규확진 3717명</v>
+        <v>대전시, 코로나 중환자실 18병상 추가확보…46병상 운영</v>
       </c>
       <c r="B30" t="str">
-        <v>http://news.tvchosun.com/site/data/html_dir/2022/01/07/2022010790038.html</v>
+        <v>http://www.newsis.com/view/?id=NISX20220106_0001715512&amp;cID=10807&amp;pID=10800</v>
       </c>
       <c r="C30" t="str">
-        <v>코로나19 신규 확진자 수가 사흘 만에 다시 3000명대로 내려왔다. 목요일 기준(발표일로는 금요일... 질병관리청 중앙방역대책본부는 7일 오전 0시 기준 코로나19 신규 확진자가 3717명 늘어 총 65만7508명이라고...</v>
+        <v>기사내용 요약지역내 위중증 병상 충남대병원 38개, 건양대병원 8개 대전시는 코로나19 전담... 이동한 시 보건복지국장은 “감염병 전담병원을 계속 확충해 시민들이 안전하게 코로나19 치료를 받을 수 있도록 총력을...</v>
       </c>
       <c r="D30" t="str">
-        <v>15시간 전</v>
+        <v>1일 전</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>美 연구팀 "코로나19 백신, 여성 생리주기에 영향"</v>
+        <v>김부겸 “먹는 코로나 치료제, 다음주 국내 들어와…신속 사용 준비”</v>
       </c>
       <c r="B31" t="str">
-        <v>http://mbn.mk.co.kr/pages/news/newsView.php?category=mbn00013&amp;news_seq_no=4676062</v>
+        <v>https://www.hani.co.kr/arti/politics/politics_general/1026387.html</v>
       </c>
       <c r="C31" t="str">
-        <v>코로나19 백신이 여성의 생리 주기에 영향을 미친다는 미국 연구팀의 연구 결과가 나왔습니다. 현지... 매체에 따르면 이들 연구팀은 코로나19 백신을 최소 1회 접종받은 여성은 백신을 접종하지 않은 여성에 비해 생리...</v>
+        <v>김 총리는 7일 정부서울청사에서 열린 코로나19 중앙재난안전대책본부 회의에서 “확산 속도가 매우 빠른 오미크론을 감당해 내려면 지금의 방역체계 전반을 ‘속도’와 ‘효율성’의 관점에서 전면적으로 혁신해야...</v>
       </c>
       <c r="D31" t="str">
-        <v>8시간 전</v>
+        <v>17시간 전</v>
       </c>
     </row>
   </sheetData>
